--- a/Project1/measure2.xlsx
+++ b/Project1/measure2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\WSU_STATS419_FALL2020\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B6121-D377-4930-8A59-046EB7E4B817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF80437-A36E-4767-A8F4-CAEFE0997439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="16370" windowHeight="9040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16370" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="panel" sheetId="1" r:id="rId1"/>
     <sheet name="covariates" sheetId="2" r:id="rId2"/>
     <sheet name="definitions" sheetId="3" r:id="rId3"/>
-    <sheet name="secret" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="68">
   <si>
     <t>units</t>
   </si>
@@ -236,43 +235,7 @@
     <t>Distance from the floor to the arm pit</t>
   </si>
   <si>
-    <t>AubrynKing</t>
-  </si>
-  <si>
-    <t>AlfredoPrieto</t>
-  </si>
-  <si>
-    <t>AndreaKing</t>
-  </si>
-  <si>
-    <t>AndrewJaboro</t>
-  </si>
-  <si>
-    <t>RogerKing</t>
-  </si>
-  <si>
-    <t>HelenTollefson</t>
-  </si>
-  <si>
-    <t>RebeccaSchmidt</t>
-  </si>
-  <si>
-    <t>MichelleSikora</t>
-  </si>
-  <si>
-    <t>AlissaKing</t>
-  </si>
-  <si>
-    <t>EbenezerEwumi</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>b7ae3660cd0f700f69ad759867c79192</t>
-  </si>
-  <si>
-    <t>AubrynK</t>
   </si>
 </sst>
 </file>
@@ -667,7 +630,7 @@
   </sheetPr>
   <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -700,7 +663,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -718,7 +681,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -736,7 +699,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -752,7 +715,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
@@ -770,7 +733,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -788,7 +751,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -806,7 +769,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -824,7 +787,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -842,7 +805,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -860,7 +823,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -878,7 +841,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
@@ -896,7 +859,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
@@ -914,7 +877,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -932,7 +895,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -950,7 +913,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -968,7 +931,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
@@ -986,7 +949,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
@@ -1004,7 +967,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
@@ -1022,7 +985,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
@@ -1040,7 +1003,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>27</v>
@@ -1058,7 +1021,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
@@ -1074,7 +1037,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
@@ -1092,7 +1055,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
@@ -1110,7 +1073,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>23</v>
@@ -1128,7 +1091,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
@@ -1146,7 +1109,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
@@ -1162,7 +1125,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -1180,7 +1143,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>23</v>
@@ -1198,7 +1161,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -1216,7 +1179,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -1234,7 +1197,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -1252,7 +1215,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -1270,7 +1233,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -1288,7 +1251,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>23</v>
@@ -1306,7 +1269,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>23</v>
@@ -1324,7 +1287,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>23</v>
@@ -1342,7 +1305,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>23</v>
@@ -1360,7 +1323,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>23</v>
@@ -1378,7 +1341,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
@@ -1396,7 +1359,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -1414,7 +1377,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>23</v>
@@ -1432,7 +1395,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>23</v>
@@ -1450,7 +1413,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>23</v>
@@ -1468,7 +1431,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
@@ -1484,7 +1447,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>23</v>
@@ -1502,7 +1465,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>23</v>
@@ -1520,7 +1483,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>24</v>
@@ -1538,7 +1501,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>24</v>
@@ -1556,7 +1519,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>24</v>
@@ -1572,7 +1535,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>24</v>
@@ -1590,7 +1553,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>24</v>
@@ -1606,7 +1569,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>24</v>
@@ -1624,7 +1587,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>24</v>
@@ -1640,7 +1603,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
@@ -1658,7 +1621,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>24</v>
@@ -1674,7 +1637,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>24</v>
@@ -1692,7 +1655,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>24</v>
@@ -1708,7 +1671,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>24</v>
@@ -1726,7 +1689,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>24</v>
@@ -1742,7 +1705,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>24</v>
@@ -1760,7 +1723,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>24</v>
@@ -1778,7 +1741,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>24</v>
@@ -1794,7 +1757,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>24</v>
@@ -1812,7 +1775,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>24</v>
@@ -1828,7 +1791,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>24</v>
@@ -1846,7 +1809,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>24</v>
@@ -1862,7 +1825,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>24</v>
@@ -1878,7 +1841,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>24</v>
@@ -1896,7 +1859,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>24</v>
@@ -1912,7 +1875,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>28</v>
@@ -1930,7 +1893,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>28</v>
@@ -1948,7 +1911,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>28</v>
@@ -1964,7 +1927,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>28</v>
@@ -1982,7 +1945,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>28</v>
@@ -2000,7 +1963,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>28</v>
@@ -2018,7 +1981,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>28</v>
@@ -2036,7 +1999,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>28</v>
@@ -2054,7 +2017,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>28</v>
@@ -2072,7 +2035,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>28</v>
@@ -2090,7 +2053,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>28</v>
@@ -2108,7 +2071,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>28</v>
@@ -2126,7 +2089,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>28</v>
@@ -2144,7 +2107,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>28</v>
@@ -2162,7 +2125,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>28</v>
@@ -2180,7 +2143,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>28</v>
@@ -2198,7 +2161,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>28</v>
@@ -2216,7 +2179,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>28</v>
@@ -2234,7 +2197,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>28</v>
@@ -2252,7 +2215,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>28</v>
@@ -2270,7 +2233,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>28</v>
@@ -2286,7 +2249,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>28</v>
@@ -2304,7 +2267,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>28</v>
@@ -2322,7 +2285,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>25</v>
@@ -2340,7 +2303,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>25</v>
@@ -2358,7 +2321,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>25</v>
@@ -2374,7 +2337,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>25</v>
@@ -2392,7 +2355,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>25</v>
@@ -2410,7 +2373,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>25</v>
@@ -2428,7 +2391,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>25</v>
@@ -2446,7 +2409,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>25</v>
@@ -2464,7 +2427,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>25</v>
@@ -2482,7 +2445,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>25</v>
@@ -2500,7 +2463,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>25</v>
@@ -2518,7 +2481,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>25</v>
@@ -2536,7 +2499,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>25</v>
@@ -2554,7 +2517,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>25</v>
@@ -2572,7 +2535,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>25</v>
@@ -2590,7 +2553,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>25</v>
@@ -2608,7 +2571,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>25</v>
@@ -2626,7 +2589,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>25</v>
@@ -2644,7 +2607,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>25</v>
@@ -2662,7 +2625,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>25</v>
@@ -2680,7 +2643,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>25</v>
@@ -2696,7 +2659,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>25</v>
@@ -2714,7 +2677,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>25</v>
@@ -2732,7 +2695,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>30</v>
@@ -2750,7 +2713,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>30</v>
@@ -2768,7 +2731,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>30</v>
@@ -2784,7 +2747,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>30</v>
@@ -2802,7 +2765,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>30</v>
@@ -2820,7 +2783,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>30</v>
@@ -2838,7 +2801,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>30</v>
@@ -2856,7 +2819,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>30</v>
@@ -2874,7 +2837,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>30</v>
@@ -2892,7 +2855,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>30</v>
@@ -2910,7 +2873,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>30</v>
@@ -2928,7 +2891,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>30</v>
@@ -2946,7 +2909,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>30</v>
@@ -2964,7 +2927,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>30</v>
@@ -2982,7 +2945,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>30</v>
@@ -3000,7 +2963,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>30</v>
@@ -3018,7 +2981,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>30</v>
@@ -3036,7 +2999,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>30</v>
@@ -3054,7 +3017,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>30</v>
@@ -3072,7 +3035,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>30</v>
@@ -3090,7 +3053,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>30</v>
@@ -3106,7 +3069,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>30</v>
@@ -3124,7 +3087,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>30</v>
@@ -3142,7 +3105,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>19</v>
@@ -3160,7 +3123,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>19</v>
@@ -3178,7 +3141,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>19</v>
@@ -3194,7 +3157,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>19</v>
@@ -3212,7 +3175,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>19</v>
@@ -3230,7 +3193,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>19</v>
@@ -3248,7 +3211,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>19</v>
@@ -3266,7 +3229,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>19</v>
@@ -3284,7 +3247,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>19</v>
@@ -3302,7 +3265,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>19</v>
@@ -3320,7 +3283,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>19</v>
@@ -3338,7 +3301,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>19</v>
@@ -3356,7 +3319,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>19</v>
@@ -3374,7 +3337,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>19</v>
@@ -3392,7 +3355,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>19</v>
@@ -3410,7 +3373,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>19</v>
@@ -3428,7 +3391,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>19</v>
@@ -3446,7 +3409,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>19</v>
@@ -3464,7 +3427,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>19</v>
@@ -3482,7 +3445,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>19</v>
@@ -3500,7 +3463,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>19</v>
@@ -3516,7 +3479,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>19</v>
@@ -3534,7 +3497,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>19</v>
@@ -3552,7 +3515,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>29</v>
@@ -3570,7 +3533,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>29</v>
@@ -3588,7 +3551,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>29</v>
@@ -3604,7 +3567,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>29</v>
@@ -3622,7 +3585,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>29</v>
@@ -3640,7 +3603,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>29</v>
@@ -3658,7 +3621,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>29</v>
@@ -3676,7 +3639,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>29</v>
@@ -3694,7 +3657,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>29</v>
@@ -3712,7 +3675,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>29</v>
@@ -3730,7 +3693,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>29</v>
@@ -3748,7 +3711,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>29</v>
@@ -3766,7 +3729,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>29</v>
@@ -3784,7 +3747,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>29</v>
@@ -3802,7 +3765,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>29</v>
@@ -3820,7 +3783,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>29</v>
@@ -3838,7 +3801,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>29</v>
@@ -3856,7 +3819,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>29</v>
@@ -3874,7 +3837,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>29</v>
@@ -3892,7 +3855,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>29</v>
@@ -3910,7 +3873,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>29</v>
@@ -3926,7 +3889,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>29</v>
@@ -3944,7 +3907,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>29</v>
@@ -3962,7 +3925,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>31</v>
@@ -3980,7 +3943,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>31</v>
@@ -3998,7 +3961,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>31</v>
@@ -4014,7 +3977,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>31</v>
@@ -4032,7 +3995,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>31</v>
@@ -4048,7 +4011,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>31</v>
@@ -4066,7 +4029,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>31</v>
@@ -4082,7 +4045,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>31</v>
@@ -4100,7 +4063,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>31</v>
@@ -4116,7 +4079,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>31</v>
@@ -4134,7 +4097,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>31</v>
@@ -4150,7 +4113,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>31</v>
@@ -4168,7 +4131,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>31</v>
@@ -4184,7 +4147,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>31</v>
@@ -4202,7 +4165,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>31</v>
@@ -4220,7 +4183,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>31</v>
@@ -4236,7 +4199,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>31</v>
@@ -4254,7 +4217,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>31</v>
@@ -4270,7 +4233,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>31</v>
@@ -4288,7 +4251,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>31</v>
@@ -4304,7 +4267,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>31</v>
@@ -4320,7 +4283,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>31</v>
@@ -4338,7 +4301,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>31</v>
@@ -4354,7 +4317,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>32</v>
@@ -4372,7 +4335,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>32</v>
@@ -4390,7 +4353,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>32</v>
@@ -4406,7 +4369,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>32</v>
@@ -4424,7 +4387,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>32</v>
@@ -4442,7 +4405,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>32</v>
@@ -4460,7 +4423,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>32</v>
@@ -4476,7 +4439,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>32</v>
@@ -4494,7 +4457,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>32</v>
@@ -4510,7 +4473,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>32</v>
@@ -4528,7 +4491,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>32</v>
@@ -4544,7 +4507,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>32</v>
@@ -4562,7 +4525,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>32</v>
@@ -4578,7 +4541,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>32</v>
@@ -4596,7 +4559,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>32</v>
@@ -4614,7 +4577,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>32</v>
@@ -4630,7 +4593,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>32</v>
@@ -4648,7 +4611,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>32</v>
@@ -4664,7 +4627,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>32</v>
@@ -4682,7 +4645,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>32</v>
@@ -4698,7 +4661,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>32</v>
@@ -4714,7 +4677,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>32</v>
@@ -4732,7 +4695,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>32</v>
@@ -4758,7 +4721,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+    <sheetView zoomScale="73" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4811,7 +4774,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -4849,7 +4812,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -4887,7 +4850,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -4925,7 +4888,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>28</v>
@@ -4963,7 +4926,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
@@ -5001,7 +4964,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -5039,7 +5002,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -5077,7 +5040,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -5115,7 +5078,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -5153,7 +5116,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>32</v>
@@ -5368,120 +5331,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC86FA0-F991-4B7F-AC19-F4AD68757317}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>